--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/RachelGreen40874.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/RachelGreen40874.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_Udacity_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00ED6EE9-D16C-4C31-9D64-C9D626BB4264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BE3332-EE5B-4EA8-A150-0DFE20B057AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{848D002E-7642-4B3F-9C3F-2AF18F67A33C}"/>
+    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{272C89CB-6B53-4DF0-A2F2-A65240554411}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457F7D5C-3575-4015-B0A6-E8FB4FF732C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EF4BA0-6155-4C5B-9B1A-78F2E8E69ED5}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/RachelGreen40874.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/RachelGreen40874.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_Udacity_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BE3332-EE5B-4EA8-A150-0DFE20B057AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409F71AA-754D-4405-864A-266007EF49F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{272C89CB-6B53-4DF0-A2F2-A65240554411}"/>
+    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{BECF4E77-2460-4A9F-98C2-2BE9DB9C0E60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>InvoiceNo</t>
   </si>
@@ -43,6 +43,89 @@
   </si>
   <si>
     <t xml:space="preserve"> Apr 04, 2020</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4Tech keyboard black </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4Tech HS-800 headphone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asus Memo Pad Tablet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Desktop C2500 Keyboard+Mouse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logitech B170 Wireless Mouse (Black) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benq G2020HDA Screen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logitech B525 Commercial HD Webcam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GST 8% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zebronics Crystal Pro Web Camera (red) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP-Link UH400 4-Port USB Hub (Black) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Gear Dragonwar Emera ELE-G11 3200 DPI _x000D_
+Gaming Mouse (Dark Blue) _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video Graphics Adapters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Techair Hard case - Flip cover for tablet - PET - Black </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Docking Station </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONNEkT GEAR - Patch cable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORT Torino - Notebook sleeve - 15.6" - black </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP - Disk drive - DVD-RW - USB - external </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speakers - Logitech </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP 4 GB for Desktop Mini PC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORT Torino - Notebook sleeve - 14" - black </t>
   </si>
 </sst>
 </file>
@@ -78,8 +161,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,27 +479,741 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EF4BA0-6155-4C5B-9B1A-78F2E8E69ED5}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266E0E9F-B577-4641-AD83-8C353638E3A7}">
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>40874</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>600</v>
+      </c>
+      <c r="G2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>900</v>
+      </c>
+      <c r="G3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>7800</v>
+      </c>
+      <c r="G4">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1500</v>
+      </c>
+      <c r="G5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>600</v>
+      </c>
+      <c r="G6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1500</v>
+      </c>
+      <c r="G7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2000</v>
+      </c>
+      <c r="G8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>18360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>600</v>
+      </c>
+      <c r="G12">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>900</v>
+      </c>
+      <c r="G13">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>7800</v>
+      </c>
+      <c r="G14">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1500</v>
+      </c>
+      <c r="G15">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>600</v>
+      </c>
+      <c r="G16">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1500</v>
+      </c>
+      <c r="G17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2000</v>
+      </c>
+      <c r="G18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2700</v>
+      </c>
+      <c r="G19">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2000</v>
+      </c>
+      <c r="G20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>800</v>
+      </c>
+      <c r="G21">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2100</v>
+      </c>
+      <c r="G23">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1000</v>
+      </c>
+      <c r="G24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>300</v>
+      </c>
+      <c r="G25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2000</v>
+      </c>
+      <c r="G26">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>600</v>
+      </c>
+      <c r="G27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2000</v>
+      </c>
+      <c r="G28">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>800</v>
+      </c>
+      <c r="G29">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>300</v>
+      </c>
+      <c r="G30">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>600</v>
+      </c>
+      <c r="G34">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1500</v>
+      </c>
+      <c r="G35">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>600</v>
+      </c>
+      <c r="G36">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2000</v>
+      </c>
+      <c r="G37">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2700</v>
+      </c>
+      <c r="G38">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2000</v>
+      </c>
+      <c r="G39">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>800</v>
+      </c>
+      <c r="G40">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C42">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>300</v>
+      </c>
+      <c r="G42">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>2000</v>
+      </c>
+      <c r="G43">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C44">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1900</v>
+      </c>
+      <c r="G44">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="F47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47">
+        <v>16308</v>
       </c>
     </row>
   </sheetData>

--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/RachelGreen40874.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/RachelGreen40874.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_Udacity_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409F71AA-754D-4405-864A-266007EF49F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B3CCFB-00B4-4D80-B4A7-5001D02718D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{BECF4E77-2460-4A9F-98C2-2BE9DB9C0E60}"/>
+    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{EE7BC9E7-7C2E-478E-A579-9082DB9B5CEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>InvoiceNo</t>
   </si>
@@ -45,19 +45,25 @@
     <t xml:space="preserve"> Apr 04, 2020</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>QTY</t>
-  </si>
-  <si>
-    <t>PRICE</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
+    <t>ItemNo</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>SubTotal</t>
+  </si>
+  <si>
+    <t>GST</t>
   </si>
   <si>
     <t xml:space="preserve">4Tech keyboard black </t>
@@ -479,691 +485,639 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266E0E9F-B577-4641-AD83-8C353638E3A7}">
-  <dimension ref="A1:G47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB03ECB-0DAB-4B09-B714-9B0E86223E23}">
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>40874</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>600</v>
-      </c>
-      <c r="G2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="H5" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>900</v>
-      </c>
-      <c r="G3">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>7800</v>
-      </c>
-      <c r="G4">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1500</v>
-      </c>
-      <c r="G5">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>600</v>
       </c>
       <c r="G6">
+        <v>600</v>
+      </c>
+      <c r="H6">
+        <v>1208</v>
+      </c>
+      <c r="I6">
+        <v>16308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>900</v>
+      </c>
+      <c r="G7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>7800</v>
+      </c>
+      <c r="G8">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1500</v>
+      </c>
+      <c r="G9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>600</v>
+      </c>
+      <c r="G10">
         <v>1200</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C7">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C11">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="F11">
         <v>1500</v>
       </c>
-      <c r="G7">
+      <c r="G11">
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C8">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C12">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>2000</v>
-      </c>
-      <c r="G8">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9">
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2000</v>
+      </c>
+      <c r="G12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13">
         <v>17000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14">
         <v>1360</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15">
         <v>18360</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>600</v>
-      </c>
-      <c r="G12">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>900</v>
-      </c>
-      <c r="G13">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>7800</v>
-      </c>
-      <c r="G14">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1500</v>
-      </c>
-      <c r="G15">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>600</v>
       </c>
       <c r="G16">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" ht="145" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="G17">
-        <v>3000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>2000</v>
+        <v>7800</v>
       </c>
       <c r="G18">
-        <v>2000</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="G19">
-        <v>2700</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>600</v>
+      </c>
+      <c r="G20">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>2000</v>
-      </c>
-      <c r="G20">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="G21">
-        <v>800</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C22">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G22">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C23">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="G23">
-        <v>2100</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C24">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G24">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C25">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="G25">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C26">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="G26">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C27">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="G27">
-        <v>1200</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C28">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G28">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C29">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G29">
-        <v>800</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C30">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="G30">
-        <v>300</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="F31" t="s">
-        <v>15</v>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>600</v>
       </c>
       <c r="G31">
-        <v>4300</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="F32" t="s">
-        <v>16</v>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2000</v>
       </c>
       <c r="G32">
-        <v>344</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="F33" t="s">
-        <v>17</v>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>800</v>
       </c>
       <c r="G33">
-        <v>4644</v>
+        <v>800</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>300</v>
+      </c>
+      <c r="G34">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="F36" t="s">
         <v>18</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>600</v>
-      </c>
-      <c r="G34">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1500</v>
-      </c>
-      <c r="G35">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>600</v>
-      </c>
       <c r="G36">
-        <v>1200</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>2000</v>
+      <c r="F37" t="s">
+        <v>19</v>
       </c>
       <c r="G37">
-        <v>2000</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>2700</v>
+        <v>600</v>
       </c>
       <c r="G38">
-        <v>2700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G39">
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C40">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G40">
-        <v>800</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C41">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G41">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C42">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42">
-        <v>300</v>
+        <v>2700</v>
       </c>
       <c r="G42">
-        <v>300</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C43">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1177,42 +1131,110 @@
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>800</v>
+      </c>
+      <c r="G44">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>300</v>
+      </c>
+      <c r="G46">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>2000</v>
+      </c>
+      <c r="G47">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C48">
         <v>11</v>
       </c>
-      <c r="D44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
+      <c r="D48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
         <v>1900</v>
       </c>
-      <c r="G44">
+      <c r="G48">
         <v>1900</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45">
+    <row r="49" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49">
         <v>15100</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50">
         <v>1208</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47">
+    <row r="51" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51">
         <v>16308</v>
       </c>
     </row>

--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/RachelGreen40874.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/RachelGreen40874.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_Udacity_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B3CCFB-00B4-4D80-B4A7-5001D02718D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE779583-1C96-4DE0-B808-ABDD7A1749B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{EE7BC9E7-7C2E-478E-A579-9082DB9B5CEC}"/>
+    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{F0E820AA-B5DA-4A22-B62E-3939426AE6E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>InvoiceNo</t>
   </si>
@@ -58,12 +58,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>SubTotal</t>
-  </si>
-  <si>
-    <t>GST</t>
   </si>
   <si>
     <t xml:space="preserve">4Tech keyboard black </t>
@@ -485,14 +479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB03ECB-0DAB-4B09-B714-9B0E86223E23}">
-  <dimension ref="A1:I51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FB78D3-1B19-4D50-9633-EEA294FDB836}">
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>40874</v>
       </c>
@@ -508,7 +502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -522,21 +516,15 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -547,19 +535,13 @@
       <c r="G6">
         <v>600</v>
       </c>
-      <c r="H6">
-        <v>1208</v>
-      </c>
-      <c r="I6">
-        <v>16308</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -571,12 +553,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -588,12 +570,12 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -605,12 +587,12 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -622,12 +604,12 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -639,12 +621,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -656,36 +638,36 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G13">
         <v>17000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G14">
         <v>1360</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G15">
         <v>18360</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -702,7 +684,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -719,7 +701,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -736,7 +718,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -753,7 +735,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -770,7 +752,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -787,7 +769,7 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -804,7 +786,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -821,7 +803,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -838,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -855,7 +837,7 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -872,7 +854,7 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -889,7 +871,7 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -906,7 +888,7 @@
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -923,7 +905,7 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -940,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -957,7 +939,7 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -974,7 +956,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -991,7 +973,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1005,7 +987,7 @@
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.35">
       <c r="F35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G35">
         <v>4300</v>
@@ -1013,7 +995,7 @@
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.35">
       <c r="F36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G36">
         <v>344</v>
@@ -1021,7 +1003,7 @@
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.35">
       <c r="F37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G37">
         <v>4644</v>
@@ -1032,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1049,7 +1031,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1066,7 +1048,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -1083,7 +1065,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1100,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1117,7 +1099,7 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1134,7 +1116,7 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1151,7 +1133,7 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1168,7 +1150,7 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1185,7 +1167,7 @@
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1202,7 +1184,7 @@
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1216,7 +1198,7 @@
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G49">
         <v>15100</v>
@@ -1224,7 +1206,7 @@
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G50">
         <v>1208</v>
@@ -1232,7 +1214,7 @@
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G51">
         <v>16308</v>

--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/RachelGreen40874.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/RachelGreen40874.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>InvoiceNo</x:t>
   </x:si>
@@ -55,12 +55,6 @@
     <x:t xml:space="preserve">600.00 </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Invoice # 130792 
-Invoice Date: Sep 01, 2020 
-Due Date: Sep 15, 2020 
-</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">02 </x:t>
   </x:si>
   <x:si>
@@ -118,22 +112,10 @@
     <x:t xml:space="preserve">2000.00 </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Invoice # 87654 
-Invoice Date: May 09, 2020 
-Due Date: May 15, 2020 
-</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">Sub Total </x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">17000.00 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Invoice # 40874 
-Invoice Date: Apr 04, 2020 
-Due Date: Apr 15, 2020 
-</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">GST 8% </x:t>
@@ -225,15 +207,6 @@
     <x:t xml:space="preserve">HP 4 GB for Desktop Mini PC </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">4300.00 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">344.00 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">4644.00 </x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">PORT Torino - Notebook sleeve - 14" - black </x:t>
   </x:si>
   <x:si>
@@ -247,50 +220,6 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">16308.00 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Invoice # 130792 
-Invoice Date: Sep 01, 2020 
-Due Date: Sep 15, 2020 
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">16 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">HP Laserjet Multifunction Printer B/W (2nd Tray 
-Optional) 
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">3 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">6000.00 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">17 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">35900.00 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2872.00 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">38772.00 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Invoice # 87654 
-Invoice Date: May 09, 2020 
-Due Date: May 15, 2020 
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Invoice # 40874 
-Invoice Date: Apr 04, 2020 
-Due Date: Apr 15, 2020 
-</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -336,13 +265,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -660,7 +583,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:9">
+    <x:row r="1" spans="1:7">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -683,7 +606,7 @@
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:9">
+    <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -706,147 +629,138 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:9">
-      <x:c r="B3" s="1" t="s">
+    <x:row r="3" spans="1:7">
+      <x:c r="C3" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="D3" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s">
+      <x:c r="E3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
+      <x:c r="G3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="C4" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:9">
-      <x:c r="C4" s="0" t="s">
+      <x:c r="D4" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="D4" s="1" t="s">
+      <x:c r="E4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
+      <x:c r="G4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7">
+      <x:c r="C5" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:9">
-      <x:c r="C5" s="0" t="s">
+      <x:c r="D5" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s">
+      <x:c r="E5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="G5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7">
+      <x:c r="C6" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:9">
-      <x:c r="C6" s="0" t="s">
+      <x:c r="D6" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
+      <x:c r="E6" s="0" t="s">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>25</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7">
+      <x:c r="C7" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:9">
-      <x:c r="C7" s="0" t="s">
+      <x:c r="D7" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
+      <x:c r="E7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
+    </x:row>
+    <x:row r="8" spans="1:7">
+      <x:c r="C8" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:9">
-      <x:c r="C8" s="0" t="s">
+      <x:c r="D8" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7">
+      <x:c r="F9" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:9">
-      <x:c r="B9" s="1" t="s">
+      <x:c r="G9" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="F9" s="0" t="s">
+    </x:row>
+    <x:row r="10" spans="1:7">
+      <x:c r="F10" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="G9" s="0" t="s">
+      <x:c r="G10" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:9">
-      <x:c r="B10" s="1" t="s">
+    <x:row r="11" spans="1:7">
+      <x:c r="F11" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="F10" s="0" t="s">
+      <x:c r="G11" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:9">
-      <x:c r="F11" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:9">
+    </x:row>
+    <x:row r="12" spans="1:7">
       <x:c r="C12" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
         <x:v>11</x:v>
@@ -858,618 +772,708 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:9">
+    <x:row r="13" spans="1:7">
       <x:c r="C13" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:7">
+      <x:c r="C14" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:9">
-      <x:c r="C14" s="0" t="s">
+      <x:c r="D14" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="D14" s="0" t="s">
+      <x:c r="E14" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
+      <x:c r="G14" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:7">
+      <x:c r="C15" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:9">
-      <x:c r="C15" s="0" t="s">
+      <x:c r="D15" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D15" s="0" t="s">
+      <x:c r="E15" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="E15" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
+      <x:c r="G15" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:7">
+      <x:c r="C16" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:9">
-      <x:c r="C16" s="0" t="s">
+      <x:c r="D16" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D16" s="0" t="s">
+      <x:c r="E16" s="0" t="s">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="E16" s="0" t="s">
-        <x:v>25</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:7">
+      <x:c r="C17" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-    </x:row>
-    <x:row r="17" spans="1:9">
-      <x:c r="C17" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="D17" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:7">
+      <x:c r="C18" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:7">
+      <x:c r="C19" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="E17" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F17" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:9">
-      <x:c r="C18" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E18" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F18" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:9">
-      <x:c r="C19" s="0" t="s">
+      <x:c r="G19" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:7">
+      <x:c r="C20" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D19" s="0" t="s">
+      <x:c r="D20" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="E19" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F19" s="0" t="s">
+      <x:c r="E20" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:7">
+      <x:c r="C21" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:9">
-      <x:c r="C20" s="0" t="s">
+      <x:c r="D21" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="D20" s="0" t="s">
+      <x:c r="E21" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="E20" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F20" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G20" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:9">
-      <x:c r="C21" s="0" t="s">
+      <x:c r="G21" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:7">
+      <x:c r="C22" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="D21" s="0" t="s">
+      <x:c r="D22" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="E21" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F21" s="0" t="s">
+      <x:c r="E22" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="G21" s="0" t="s">
+      <x:c r="G22" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:9">
-      <x:c r="C22" s="0" t="s">
+    <x:row r="23" spans="1:7">
+      <x:c r="C23" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="D22" s="0" t="s">
+      <x:c r="D23" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="E22" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F22" s="0" t="s">
+      <x:c r="E23" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="G22" s="0" t="s">
+      <x:c r="G23" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:9">
-      <x:c r="C23" s="0" t="s">
+    <x:row r="24" spans="1:7">
+      <x:c r="C24" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="D23" s="0" t="s">
+      <x:c r="D24" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="E23" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F23" s="0" t="s">
+      <x:c r="E24" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="G23" s="0" t="s">
+      <x:c r="G24" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:9">
-      <x:c r="C24" s="0" t="s">
+    <x:row r="25" spans="1:7">
+      <x:c r="C25" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="D24" s="0" t="s">
+      <x:c r="D25" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="E24" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F24" s="0" t="s">
+      <x:c r="E25" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="G24" s="0" t="s">
+      <x:c r="G25" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:9">
-      <x:c r="C25" s="0" t="s">
+    <x:row r="26" spans="1:7">
+      <x:c r="C26" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="D25" s="0" t="s">
+      <x:c r="D26" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="E25" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F25" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="G25" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:9">
-      <x:c r="C26" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:9">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:7">
       <x:c r="C27" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:7">
+      <x:c r="C28" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:7">
+      <x:c r="C29" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:7">
+      <x:c r="C30" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:7">
+      <x:c r="C31" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:7">
+      <x:c r="C32" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-    </x:row>
-    <x:row r="28" spans="1:9">
-      <x:c r="C28" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D28" s="0" t="s">
+      <x:c r="D32" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:7">
+      <x:c r="C33" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:7">
+      <x:c r="C34" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:7">
+      <x:c r="C35" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:7">
+      <x:c r="C36" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="E28" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F28" s="0" t="s">
+      <x:c r="G36" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:7">
+      <x:c r="C37" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:7">
+      <x:c r="C38" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:7">
+      <x:c r="C39" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:7">
+      <x:c r="C40" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:7">
+      <x:c r="C41" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:7">
+      <x:c r="C42" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:7">
+      <x:c r="C43" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:7">
+      <x:c r="C44" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:7">
+      <x:c r="C45" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:7">
+      <x:c r="C46" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:7">
+      <x:c r="C47" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:7">
+      <x:c r="C48" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:7">
+      <x:c r="C49" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:7">
+      <x:c r="C50" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:7">
+      <x:c r="C51" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:7">
+      <x:c r="C52" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:7">
+      <x:c r="F53" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="G28" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:9">
-      <x:c r="C29" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D29" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="E29" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F29" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="G29" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:9">
-      <x:c r="C30" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D30" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="E30" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F30" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="G30" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:9">
-      <x:c r="F31" s="0" t="s">
+      <x:c r="G53" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:7">
+      <x:c r="F54" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="G31" s="0" t="s">
+      <x:c r="G54" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:9">
-      <x:c r="F32" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G32" s="0" t="s">
+    <x:row r="55" spans="1:7">
+      <x:c r="F55" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
         <x:v>67</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:9">
-      <x:c r="F33" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G33" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:9">
-      <x:c r="C34" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D34" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="E34" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F34" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G34" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:9">
-      <x:c r="C35" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D35" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E35" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F35" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G35" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:9">
-      <x:c r="C36" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D36" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E36" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F36" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G36" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:9">
-      <x:c r="C37" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D37" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E37" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F37" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G37" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:9">
-      <x:c r="C38" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D38" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E38" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F38" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="G38" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:9">
-      <x:c r="C39" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D39" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="E39" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F39" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G39" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:9">
-      <x:c r="C40" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D40" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="E40" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F40" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="G40" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:9">
-      <x:c r="C41" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D41" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="E41" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F41" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="G41" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:9">
-      <x:c r="C42" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D42" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="E42" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F42" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="G42" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:9">
-      <x:c r="C43" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D43" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="E43" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F43" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G43" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:9">
-      <x:c r="C44" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D44" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E44" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F44" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="G44" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:9">
-      <x:c r="F45" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G45" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:9">
-      <x:c r="F46" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G46" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:9">
-      <x:c r="F47" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G47" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:9">
-      <x:c r="B48" s="1" t="s">
-        <x:v>74</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="1:9">
-      <x:c r="C49" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D49" s="1" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E49" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="F49" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G49" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:9">
-      <x:c r="C50" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="D50" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E50" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F50" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="G50" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:9">
-      <x:c r="F51" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G51" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:9">
-      <x:c r="F52" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G52" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:9">
-      <x:c r="F53" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G53" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:9">
-      <x:c r="B54" s="1" t="s">
-        <x:v>83</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="1:9">
-      <x:c r="B55" s="1" t="s">
-        <x:v>84</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/RachelGreen40874.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/RachelGreen40874.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <x:si>
     <x:t>InvoiceNo #</x:t>
   </x:si>
@@ -33,6 +33,21 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> Apr 04, 2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DESCRIPTION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QTY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRICE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TOTAL</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">01 </x:t>
@@ -537,209 +552,218 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A6" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E6" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A7" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E7" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A8" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E8" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A9" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E9" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A10" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E10" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A11" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E11" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A12" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E12" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A13" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E13" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A14" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E14" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A15" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E15" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A16" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E16" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="D17" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E17" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="D18" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E18" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="D19" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="E19" s="2" t="n">
-        <x:v>16308</x:v>
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E19" s="2" t="s">
+        <x:v>47</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/RachelGreen40874.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/RachelGreen40874.xlsx
@@ -1,22 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_Udacity_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E582368C-44D6-4BA9-9270-1EA686F1A546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="52590" yWindow="2265" windowWidth="17280" windowHeight="9075" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <x:sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="0"/>
+  <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
@@ -170,12 +163,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1" x14ac:knownFonts="1">
+  <x:fonts count="1">
     <x:font>
+      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
@@ -191,23 +185,30 @@
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+  <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  <x:cellXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -216,19 +217,10 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -511,258 +503,258 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E19"/>
+  <x:dimension ref="A1:A1"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A1" s="2" t="s">
+    <x:row r="1" spans="1:5">
+      <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s">
+      <x:c r="B1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A2" s="2" t="s">
+    <x:row r="2" spans="1:5">
+      <x:c r="A2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B2" s="2" t="s">
+      <x:c r="B2" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A5" s="2" t="s">
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B5" s="2" t="s">
+      <x:c r="B5" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s">
+      <x:c r="D5" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E5" s="2" t="s">
+      <x:c r="E5" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A6" s="2" t="s">
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B6" s="2" t="s">
+      <x:c r="B6" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D6" s="2" t="s">
+      <x:c r="C6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="E6" s="2" t="s">
+      <x:c r="E6" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A7" s="2" t="s">
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B7" s="2" t="s">
+      <x:c r="B7" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C7" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D7" s="2" t="s">
+      <x:c r="C7" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="E7" s="2" t="s">
+      <x:c r="E7" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A8" s="2" t="s">
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B8" s="2" t="s">
+      <x:c r="B8" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
+      <x:c r="D8" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="E8" s="2" t="s">
+      <x:c r="E8" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A9" s="2" t="s">
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B9" s="2" t="s">
+      <x:c r="B9" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
+      <x:c r="C9" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="E9" s="2" t="s">
+      <x:c r="E9" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A10" s="2" t="s">
+    <x:row r="10" spans="1:5">
+      <x:c r="A10" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B10" s="2" t="s">
+      <x:c r="B10" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D10" s="2" t="s">
+      <x:c r="C10" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="E10" s="2" t="s">
+      <x:c r="E10" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A11" s="2" t="s">
+    <x:row r="11" spans="1:5">
+      <x:c r="A11" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B11" s="2" t="s">
+      <x:c r="B11" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D11" s="2" t="s">
+      <x:c r="C11" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="E11" s="2" t="s">
+      <x:c r="E11" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A12" s="2" t="s">
+    <x:row r="12" spans="1:5">
+      <x:c r="A12" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B12" s="2" t="s">
+      <x:c r="B12" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D12" s="2" t="s">
+      <x:c r="C12" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="E12" s="2" t="s">
+      <x:c r="E12" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A13" s="2" t="s">
+    <x:row r="13" spans="1:5">
+      <x:c r="A13" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B13" s="2" t="s">
+      <x:c r="B13" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
+      <x:c r="C13" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="E13" s="2" t="s">
+      <x:c r="E13" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A14" s="2" t="s">
+    <x:row r="14" spans="1:5">
+      <x:c r="A14" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B14" s="2" t="s">
+      <x:c r="B14" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D14" s="2" t="s">
+      <x:c r="C14" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="E14" s="2" t="s">
+      <x:c r="E14" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A15" s="2" t="s">
+    <x:row r="15" spans="1:5">
+      <x:c r="A15" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="B15" s="2" t="s">
+      <x:c r="B15" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
+      <x:c r="C15" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="E15" s="2" t="s">
+      <x:c r="E15" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A16" s="2" t="s">
+    <x:row r="16" spans="1:5">
+      <x:c r="A16" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="B16" s="2" t="s">
+      <x:c r="B16" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
+      <x:c r="C16" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="E16" s="2" t="s">
+      <x:c r="E16" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="D17" s="2" t="s">
+    <x:row r="17" spans="1:5">
+      <x:c r="D17" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="E17" s="2" t="s">
+      <x:c r="E17" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="D18" s="2" t="s">
+    <x:row r="18" spans="1:5">
+      <x:c r="D18" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="E18" s="2" t="s">
+      <x:c r="E18" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="D19" s="2" t="s">
+    <x:row r="19" spans="1:5">
+      <x:c r="D19" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="E19" s="2" t="s">
+      <x:c r="E19" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
     </x:row>
